--- a/ValueSet-hemorrhagic-stroke-bleeding-reason-vs.xlsx
+++ b/ValueSet-hemorrhagic-stroke-bleeding-reason-vs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-31</t>
+    <t>2025-09-08</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -99,37 +99,16 @@
     <t>BooleanType[null]</t>
   </si>
   <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>128609009</t>
-  </si>
-  <si>
-    <t>Intracranial aneurysm (disorder)</t>
-  </si>
-  <si>
-    <t>703221003</t>
-  </si>
-  <si>
-    <t>Congenital intracranial vascular malformation (disorder)</t>
-  </si>
-  <si>
-    <t>64572001</t>
-  </si>
-  <si>
-    <t>Disease (disorder)</t>
-  </si>
-  <si>
-    <t>71388002</t>
-  </si>
-  <si>
-    <t>Procedure (procedure)</t>
+    <t>Codes</t>
+  </si>
+  <si>
+    <t>All codes</t>
   </si>
   <si>
     <t>System URI</t>
   </si>
   <si>
-    <t>http://snomed.info/sct</t>
+    <t>http://testSK.org/CodeSystem/hemorrhagic-stroke-bleeding-reason-cs</t>
   </si>
 </sst>
 </file>
@@ -396,7 +375,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,56 +389,26 @@
       <c r="A1" t="s" s="1">
         <v>28</v>
       </c>
-      <c r="B1" t="s" s="1">
-        <v>22</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="B2" t="s" s="2">
-        <v>30</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-hemorrhagic-stroke-bleeding-reason-vs.xlsx
+++ b/ValueSet-hemorrhagic-stroke-bleeding-reason-vs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Property</t>
   </si>
@@ -90,13 +90,19 @@
     <t>Purpose</t>
   </si>
   <si>
+    <t>To enable consistent capture of the underlying cause of bleeding in hemorrhagic stroke.</t>
+  </si>
+  <si>
     <t>Copyright</t>
   </si>
   <si>
+    <t>© Tecnomod. This value set includes locally defined codes.</t>
+  </si>
+  <si>
     <t>Immutable</t>
   </si>
   <si>
-    <t>BooleanType[null]</t>
+    <t>BooleanType[false]</t>
   </si>
   <si>
     <t>Codes</t>
@@ -352,20 +358,24 @@
       <c r="A13" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" t="s" s="2">
+        <v>25</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>27</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -387,12 +397,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
@@ -405,10 +415,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
